--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1205153.481794207</v>
+        <v>1200283.30450947</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15529481.89034889</v>
+        <v>15529481.89034888</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8296541.918375796</v>
+        <v>8296541.918375795</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6680496.979538352</v>
+        <v>6680496.979538351</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>302.7451799698754</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>61.96906116641039</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>212.4758086907236</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>44.26917585070986</v>
+        <v>77.18842498369519</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H12" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T12" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>207.8918312087472</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>111.3317203006757</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>153.8297498741687</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>229.5134335018853</v>
@@ -1587,7 +1587,7 @@
         <v>282.5352749748386</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -1596,7 +1596,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.0459630191515</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>286.5094841388363</v>
       </c>
     </row>
     <row r="15">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>99.46448030979502</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>75.63199056420534</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>117.7848734220132</v>
@@ -1706,7 +1706,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I15" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>170.8836040586646</v>
@@ -1773,19 +1773,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.6708174907576</v>
       </c>
       <c r="H16" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.16341786525869</v>
+        <v>68.02273892402272</v>
       </c>
       <c r="S16" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.381163718586015</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.1635668959495</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>347.3694744932315</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.4758086907236</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1928,22 +1928,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>121.3076943505714</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I18" t="n">
-        <v>11.90382589688437</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>170.8836040586646</v>
       </c>
       <c r="U18" t="n">
-        <v>207.8918312087472</v>
+        <v>195.4492169174777</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
@@ -2010,16 +2010,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>25.85065361252674</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>79.97905790232761</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2089,7 +2089,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>172.5562551007183</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>172.2266780424403</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>121.3076943505716</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>113.625858512588</v>
       </c>
       <c r="T21" t="n">
-        <v>170.8836040586646</v>
+        <v>169.0130983258996</v>
       </c>
       <c r="U21" t="n">
         <v>207.8918312087472</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -2259,7 +2259,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I22" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>57.73846335834566</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>46.39695154975703</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.7254940853215</v>
+        <v>244.1556865096048</v>
       </c>
       <c r="G23" t="n">
-        <v>212.8210562417974</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>117.7848734220132</v>
       </c>
       <c r="H24" t="n">
-        <v>77.03851849986194</v>
+        <v>77.0385184998629</v>
       </c>
       <c r="I24" t="n">
-        <v>11.90382589688437</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>113.6258585125889</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T24" t="n">
         <v>170.8836040586646</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.5134335018853</v>
@@ -2535,7 +2535,7 @@
         <v>282.5352749748386</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>25.59911046544207</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>183.2450844019272</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.821056241797</v>
+        <v>17.74043016210593</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2654,7 +2654,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I27" t="n">
-        <v>11.90382589688437</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>93.78857933562064</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I28" t="n">
-        <v>104.6770998313136</v>
+        <v>94.00742925139936</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>222.1349993943191</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>228.0038887481539</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2891,7 +2891,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I30" t="n">
-        <v>11.90382589688437</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3015,7 +3015,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>194.1036628252509</v>
+        <v>99.96382235604113</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>209.135388775972</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>39.20553216371326</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3128,7 +3128,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I33" t="n">
-        <v>11.90382589688437</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.94825402042001</v>
       </c>
       <c r="H34" t="n">
-        <v>78.56798457061358</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>185.0912503946672</v>
@@ -3243,19 +3243,19 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>92.2670165982661</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U35" t="n">
-        <v>150.8054565644585</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3350,22 +3350,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>111.7553527798228</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U36" t="n">
         <v>207.8918312087472</v>
       </c>
       <c r="V36" t="n">
-        <v>44.2507748719373</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.99207518920274</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.5134335018853</v>
+        <v>40.80211444031529</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>326.2436204753223</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U38" t="n">
-        <v>183.180415347939</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>85.0109198668286</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
@@ -3596,13 +3596,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7848734220132</v>
+        <v>17.52008882085129</v>
       </c>
       <c r="H39" t="n">
         <v>77.03851849986194</v>
       </c>
       <c r="I39" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>113.625858512588</v>
       </c>
       <c r="T39" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3647,10 +3647,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,13 +3666,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>107.2732403331564</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>21.38168153640539</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>85.5019429348301</v>
       </c>
       <c r="C41" t="n">
-        <v>386.7997207813964</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,16 +3830,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H42" t="n">
         <v>77.03851849986194</v>
       </c>
       <c r="I42" t="n">
-        <v>6.807787976979059</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.8836040586646</v>
+        <v>109.3058583084294</v>
       </c>
       <c r="U42" t="n">
         <v>207.8918312087472</v>
@@ -3884,7 +3884,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>229.5134335018853</v>
@@ -3957,16 +3957,16 @@
         <v>282.5352749748386</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>74.88805229366564</v>
       </c>
       <c r="X43" t="n">
-        <v>141.8044368107896</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>123.9093507981596</v>
       </c>
       <c r="E44" t="n">
-        <v>59.16623705245981</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>96.91474576371014</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4076,7 +4076,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I45" t="n">
-        <v>11.90382589688437</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>113.625858512588</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>138.5167475680945</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4137,22 +4137,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>185.0912503946672</v>
       </c>
       <c r="T46" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>204.8541743455173</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.6286648923834</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.42483255128946</v>
+        <v>1056.079007461926</v>
       </c>
       <c r="C11" t="n">
-        <v>98.42483255128946</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="D11" t="n">
-        <v>98.42483255128946</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="E11" t="n">
-        <v>35.82982127208704</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="F11" t="n">
-        <v>35.82982127208704</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="G11" t="n">
-        <v>35.82982127208704</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H11" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I11" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J11" t="n">
         <v>349.1973608293694</v>
       </c>
       <c r="K11" t="n">
-        <v>738.4375300959595</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L11" t="n">
-        <v>900.422237772588</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.246570513255</v>
+        <v>823.2427787360873</v>
       </c>
       <c r="N11" t="n">
-        <v>1308.319426359284</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O11" t="n">
-        <v>1495.18453242897</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P11" t="n">
-        <v>1632.243926624104</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q11" t="n">
         <v>1703.857538398287</v>
       </c>
       <c r="R11" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="S11" t="n">
         <v>1671.195782153852</v>
@@ -5074,19 +5074,19 @@
         <v>1456.573753173323</v>
       </c>
       <c r="U11" t="n">
-        <v>1200.983281946427</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="V11" t="n">
-        <v>858.8764726499452</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="W11" t="n">
-        <v>487.8774376182326</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="X11" t="n">
-        <v>98.42483255128946</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.42483255128946</v>
+        <v>1456.573753173323</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>321.0411428710415</v>
+        <v>493.6508439403992</v>
       </c>
       <c r="C12" t="n">
-        <v>170.3869124311337</v>
+        <v>493.6508439403992</v>
       </c>
       <c r="D12" t="n">
-        <v>125.6705731879924</v>
+        <v>415.6827378962627</v>
       </c>
       <c r="E12" t="n">
-        <v>125.6705731879924</v>
+        <v>279.2362470071504</v>
       </c>
       <c r="F12" t="n">
-        <v>125.6705731879924</v>
+        <v>154.8044408902822</v>
       </c>
       <c r="G12" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H12" t="n">
-        <v>47.85388783459651</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I12" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J12" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K12" t="n">
-        <v>588.6621519806973</v>
+        <v>337.3751001138272</v>
       </c>
       <c r="L12" t="n">
-        <v>730.4395128079623</v>
+        <v>479.1524609410921</v>
       </c>
       <c r="M12" t="n">
-        <v>908.4689699992631</v>
+        <v>657.1819181323929</v>
       </c>
       <c r="N12" t="n">
         <v>1100.57595637447</v>
       </c>
       <c r="O12" t="n">
-        <v>1261.873450882458</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P12" t="n">
         <v>1378.762417405294</v>
@@ -5144,28 +5144,28 @@
         <v>1748.895481510255</v>
       </c>
       <c r="R12" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="S12" t="n">
         <v>1676.717469147192</v>
       </c>
       <c r="T12" t="n">
-        <v>1504.107768077834</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="U12" t="n">
-        <v>1294.11601938213</v>
+        <v>1466.725720451488</v>
       </c>
       <c r="V12" t="n">
-        <v>1071.576017753197</v>
+        <v>1244.185718822555</v>
       </c>
       <c r="W12" t="n">
-        <v>841.4587718864839</v>
+        <v>1014.068472955842</v>
       </c>
       <c r="X12" t="n">
-        <v>652.1516942364956</v>
+        <v>824.7613953058533</v>
       </c>
       <c r="Y12" t="n">
-        <v>472.8374773120028</v>
+        <v>645.4471783813606</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.9192175015679</v>
+        <v>348.5393417905976</v>
       </c>
       <c r="C13" t="n">
-        <v>191.4629343695723</v>
+        <v>348.5393417905976</v>
       </c>
       <c r="D13" t="n">
-        <v>35.82982127208704</v>
+        <v>193.1557560591141</v>
       </c>
       <c r="E13" t="n">
-        <v>35.82982127208704</v>
+        <v>193.1557560591141</v>
       </c>
       <c r="F13" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="G13" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H13" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I13" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J13" t="n">
         <v>69.09848475894682</v>
@@ -5217,34 +5217,34 @@
         <v>1485.680193679921</v>
       </c>
       <c r="P13" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q13" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="R13" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="S13" t="n">
-        <v>1604.530204619839</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="T13" t="n">
-        <v>1372.698453607834</v>
+        <v>1559.659312592346</v>
       </c>
       <c r="U13" t="n">
-        <v>1087.309286966583</v>
+        <v>1274.270145951095</v>
       </c>
       <c r="V13" t="n">
-        <v>821.3299417874072</v>
+        <v>1274.270145951095</v>
       </c>
       <c r="W13" t="n">
-        <v>537.9995397185849</v>
+        <v>990.9397438822725</v>
       </c>
       <c r="X13" t="n">
-        <v>303.9192175015679</v>
+        <v>756.8594216652556</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.9192175015679</v>
+        <v>533.7473604818989</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.82982127208704</v>
+        <v>1167.170233841165</v>
       </c>
       <c r="C14" t="n">
-        <v>35.82982127208704</v>
+        <v>1167.170233841165</v>
       </c>
       <c r="D14" t="n">
-        <v>35.82982127208704</v>
+        <v>1167.170233841165</v>
       </c>
       <c r="E14" t="n">
-        <v>35.82982127208704</v>
+        <v>1167.170233841165</v>
       </c>
       <c r="F14" t="n">
-        <v>35.82982127208704</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="G14" t="n">
-        <v>35.82982127208704</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H14" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I14" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J14" t="n">
         <v>349.1973608293694</v>
@@ -5287,43 +5287,43 @@
         <v>622.4184459954201</v>
       </c>
       <c r="M14" t="n">
-        <v>823.2427787360873</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N14" t="n">
         <v>1030.315634582116</v>
       </c>
       <c r="O14" t="n">
-        <v>1217.180740651802</v>
+        <v>1276.483413588091</v>
       </c>
       <c r="P14" t="n">
-        <v>1391.978180255011</v>
+        <v>1719.877451830168</v>
       </c>
       <c r="Q14" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="R14" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="S14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T14" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="U14" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="V14" t="n">
-        <v>1449.38425430787</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="W14" t="n">
-        <v>1078.385219276158</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="X14" t="n">
-        <v>688.9326142092146</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.4419051298158</v>
+        <v>1167.170233841165</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>321.0411428710415</v>
+        <v>487.141899739066</v>
       </c>
       <c r="C15" t="n">
-        <v>321.0411428710415</v>
+        <v>487.141899739066</v>
       </c>
       <c r="D15" t="n">
-        <v>321.0411428710415</v>
+        <v>357.0529323605463</v>
       </c>
       <c r="E15" t="n">
-        <v>321.0411428710415</v>
+        <v>357.0529323605463</v>
       </c>
       <c r="F15" t="n">
-        <v>244.6451928061876</v>
+        <v>232.6211262436781</v>
       </c>
       <c r="G15" t="n">
-        <v>125.6705731879924</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H15" t="n">
-        <v>47.85388783459651</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I15" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J15" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K15" t="n">
-        <v>588.6621519806973</v>
+        <v>588.6621519806965</v>
       </c>
       <c r="L15" t="n">
-        <v>730.4395128079623</v>
+        <v>730.4395128079616</v>
       </c>
       <c r="M15" t="n">
-        <v>908.4689699992631</v>
+        <v>908.4689699992624</v>
       </c>
       <c r="N15" t="n">
         <v>1100.57595637447</v>
       </c>
       <c r="O15" t="n">
-        <v>1261.873450882458</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P15" t="n">
         <v>1378.762417405294</v>
@@ -5381,28 +5381,28 @@
         <v>1748.895481510255</v>
       </c>
       <c r="R15" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="S15" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="T15" t="n">
-        <v>1504.107768077834</v>
+        <v>1618.881362534993</v>
       </c>
       <c r="U15" t="n">
-        <v>1294.11601938213</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V15" t="n">
-        <v>1071.576017753197</v>
+        <v>1186.349612210356</v>
       </c>
       <c r="W15" t="n">
-        <v>841.4587718864839</v>
+        <v>956.232366343643</v>
       </c>
       <c r="X15" t="n">
-        <v>652.1516942364956</v>
+        <v>766.9252886936547</v>
       </c>
       <c r="Y15" t="n">
-        <v>472.8374773120028</v>
+        <v>587.611071769162</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1095.021160589417</v>
+        <v>529.0123123952574</v>
       </c>
       <c r="C16" t="n">
-        <v>924.8160426554061</v>
+        <v>358.8071944612466</v>
       </c>
       <c r="D16" t="n">
-        <v>769.1829295579209</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="E16" t="n">
-        <v>613.6241174171234</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="F16" t="n">
-        <v>456.2981826300964</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="G16" t="n">
-        <v>288.9539225384221</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I16" t="n">
-        <v>35.82982127208704</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J16" t="n">
-        <v>69.098484758947</v>
+        <v>69.09848475894704</v>
       </c>
       <c r="K16" t="n">
-        <v>254.5315649273075</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L16" t="n">
-        <v>551.2290272394</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M16" t="n">
-        <v>877.2968956781581</v>
+        <v>877.2968956781572</v>
       </c>
       <c r="N16" t="n">
-        <v>1196.939252046641</v>
+        <v>1196.93925204664</v>
       </c>
       <c r="O16" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P16" t="n">
-        <v>1713.402080241571</v>
+        <v>1713.40208024157</v>
       </c>
       <c r="Q16" t="n">
-        <v>1791.491063604352</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="R16" t="n">
-        <v>1708.497712225303</v>
+        <v>1722.781226307359</v>
       </c>
       <c r="S16" t="n">
-        <v>1521.53685324079</v>
+        <v>1722.781226307359</v>
       </c>
       <c r="T16" t="n">
-        <v>1289.705102228785</v>
+        <v>1722.781226307359</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.229179280718</v>
+        <v>1437.392059666108</v>
       </c>
       <c r="V16" t="n">
-        <v>1280.229179280718</v>
+        <v>1171.412714486932</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.229179280718</v>
+        <v>1171.412714486932</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.229179280718</v>
+        <v>937.3323922699153</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.229179280718</v>
+        <v>714.2203310865586</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.82982127208703</v>
+        <v>779.8835798330267</v>
       </c>
       <c r="C17" t="n">
-        <v>35.82982127208703</v>
+        <v>386.7080783359573</v>
       </c>
       <c r="D17" t="n">
-        <v>35.82982127208703</v>
+        <v>386.7080783359573</v>
       </c>
       <c r="E17" t="n">
         <v>35.82982127208703</v>
@@ -5518,49 +5518,49 @@
         <v>349.1973608293694</v>
       </c>
       <c r="K17" t="n">
-        <v>498.1717837268669</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L17" t="n">
-        <v>660.1564914034955</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M17" t="n">
-        <v>860.9808241441626</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N17" t="n">
-        <v>1068.053679990191</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O17" t="n">
-        <v>1254.918786059878</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P17" t="n">
-        <v>1391.978180255011</v>
+        <v>1632.243926624103</v>
       </c>
       <c r="Q17" t="n">
-        <v>1791.491063604351</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R17" t="n">
         <v>1791.491063604351</v>
       </c>
       <c r="S17" t="n">
-        <v>1671.195782153852</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="T17" t="n">
-        <v>1456.573753173323</v>
+        <v>1576.869034623822</v>
       </c>
       <c r="U17" t="n">
-        <v>1456.573753173323</v>
+        <v>1576.869034623822</v>
       </c>
       <c r="V17" t="n">
-        <v>1456.573753173323</v>
+        <v>1576.869034623822</v>
       </c>
       <c r="W17" t="n">
-        <v>1085.57471814161</v>
+        <v>1576.869034623822</v>
       </c>
       <c r="X17" t="n">
-        <v>696.1221130746673</v>
+        <v>1576.869034623822</v>
       </c>
       <c r="Y17" t="n">
-        <v>299.6314039952684</v>
+        <v>1180.378325544424</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>321.041142871041</v>
+        <v>786.2666876305956</v>
       </c>
       <c r="C18" t="n">
-        <v>170.3869124311332</v>
+        <v>635.6124571906878</v>
       </c>
       <c r="D18" t="n">
-        <v>47.8538878345965</v>
+        <v>505.5234898121681</v>
       </c>
       <c r="E18" t="n">
-        <v>47.8538878345965</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="F18" t="n">
-        <v>47.8538878345965</v>
+        <v>244.6451928061876</v>
       </c>
       <c r="G18" t="n">
-        <v>47.8538878345965</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="H18" t="n">
-        <v>47.8538878345965</v>
+        <v>47.85388783459649</v>
       </c>
       <c r="I18" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J18" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K18" t="n">
-        <v>498.0909927375706</v>
+        <v>631.2577340747937</v>
       </c>
       <c r="L18" t="n">
-        <v>639.8683535648355</v>
+        <v>773.0350949020587</v>
       </c>
       <c r="M18" t="n">
-        <v>817.8978107561363</v>
+        <v>951.0645520933596</v>
       </c>
       <c r="N18" t="n">
-        <v>1010.004797131343</v>
+        <v>1143.171538468567</v>
       </c>
       <c r="O18" t="n">
-        <v>1171.302291639331</v>
+        <v>1304.469032976554</v>
       </c>
       <c r="P18" t="n">
-        <v>1378.762417405294</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q18" t="n">
-        <v>1748.895481510255</v>
+        <v>1791.491063604351</v>
       </c>
       <c r="R18" t="n">
         <v>1791.491063604351</v>
@@ -5627,19 +5627,19 @@
         <v>1504.107768077834</v>
       </c>
       <c r="U18" t="n">
-        <v>1294.116019382129</v>
+        <v>1306.684316646038</v>
       </c>
       <c r="V18" t="n">
-        <v>1071.576017753197</v>
+        <v>1306.684316646038</v>
       </c>
       <c r="W18" t="n">
-        <v>841.4587718864834</v>
+        <v>1306.684316646038</v>
       </c>
       <c r="X18" t="n">
-        <v>652.1516942364951</v>
+        <v>1117.37723899605</v>
       </c>
       <c r="Y18" t="n">
-        <v>472.8374773120024</v>
+        <v>938.0630220715569</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>518.9939870906101</v>
+        <v>868.0088306488665</v>
       </c>
       <c r="C19" t="n">
-        <v>348.7888691565993</v>
+        <v>697.8037127148557</v>
       </c>
       <c r="D19" t="n">
-        <v>193.1557560591141</v>
+        <v>542.1705996173705</v>
       </c>
       <c r="E19" t="n">
-        <v>193.1557560591141</v>
+        <v>386.611787476573</v>
       </c>
       <c r="F19" t="n">
-        <v>35.82982127208703</v>
+        <v>229.2858526895459</v>
       </c>
       <c r="G19" t="n">
-        <v>35.82982127208703</v>
+        <v>61.94159259787162</v>
       </c>
       <c r="H19" t="n">
         <v>35.82982127208703</v>
@@ -5673,52 +5673,52 @@
         <v>35.82982127208703</v>
       </c>
       <c r="J19" t="n">
-        <v>69.09848475894682</v>
+        <v>69.09848475894704</v>
       </c>
       <c r="K19" t="n">
-        <v>254.5315649273073</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L19" t="n">
-        <v>551.2290272393997</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M19" t="n">
-        <v>877.2968956781576</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N19" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O19" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P19" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q19" t="n">
-        <v>1791.491063604351</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R19" t="n">
-        <v>1710.704136430283</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S19" t="n">
-        <v>1710.704136430283</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T19" t="n">
-        <v>1710.704136430283</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="U19" t="n">
-        <v>1710.704136430283</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="V19" t="n">
-        <v>1444.724791251107</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.394389182285</v>
+        <v>1276.328910523524</v>
       </c>
       <c r="X19" t="n">
-        <v>927.314066965268</v>
+        <v>1276.328910523524</v>
       </c>
       <c r="Y19" t="n">
-        <v>704.2020057819113</v>
+        <v>1053.216849340168</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1217.029976435944</v>
+        <v>874.5902610199901</v>
       </c>
       <c r="C20" t="n">
-        <v>823.8544749388748</v>
+        <v>481.4147595229207</v>
       </c>
       <c r="D20" t="n">
-        <v>438.4133461555425</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="E20" t="n">
-        <v>35.82982127208703</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="F20" t="n">
-        <v>35.82982127208703</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="G20" t="n">
-        <v>35.82982127208703</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="H20" t="n">
-        <v>35.82982127208703</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="I20" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J20" t="n">
         <v>349.1973608293694</v>
@@ -5761,7 +5761,7 @@
         <v>622.4184459954201</v>
       </c>
       <c r="M20" t="n">
-        <v>823.2427787360873</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N20" t="n">
         <v>1030.315634582116</v>
@@ -5782,22 +5782,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T20" t="n">
-        <v>1791.491063604352</v>
+        <v>1617.191816027869</v>
       </c>
       <c r="U20" t="n">
-        <v>1791.491063604352</v>
+        <v>1617.191816027869</v>
       </c>
       <c r="V20" t="n">
-        <v>1617.524722147341</v>
+        <v>1275.085006731387</v>
       </c>
       <c r="W20" t="n">
-        <v>1617.524722147341</v>
+        <v>1275.085006731387</v>
       </c>
       <c r="X20" t="n">
-        <v>1617.524722147341</v>
+        <v>1275.085006731387</v>
       </c>
       <c r="Y20" t="n">
-        <v>1617.524722147341</v>
+        <v>1275.085006731387</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>321.0411428710412</v>
+        <v>322.9305426011071</v>
       </c>
       <c r="C21" t="n">
-        <v>170.3869124311335</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="D21" t="n">
-        <v>47.8538878345965</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="E21" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F21" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G21" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H21" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I21" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J21" t="n">
         <v>249.431949475221</v>
       </c>
       <c r="K21" t="n">
-        <v>588.6621519806971</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L21" t="n">
         <v>730.439512807962</v>
@@ -5861,22 +5861,22 @@
         <v>1676.717469147192</v>
       </c>
       <c r="T21" t="n">
-        <v>1504.107768077834</v>
+        <v>1505.9971678079</v>
       </c>
       <c r="U21" t="n">
-        <v>1294.11601938213</v>
+        <v>1296.005419112196</v>
       </c>
       <c r="V21" t="n">
-        <v>1071.576017753197</v>
+        <v>1073.465417483263</v>
       </c>
       <c r="W21" t="n">
-        <v>841.4587718864836</v>
+        <v>843.3481716165495</v>
       </c>
       <c r="X21" t="n">
-        <v>652.1516942364954</v>
+        <v>654.0410939665612</v>
       </c>
       <c r="Y21" t="n">
-        <v>472.8374773120026</v>
+        <v>474.7268770420685</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1095.021160589417</v>
+        <v>678.0947910770801</v>
       </c>
       <c r="C22" t="n">
-        <v>924.8160426554061</v>
+        <v>507.8896731430693</v>
       </c>
       <c r="D22" t="n">
-        <v>769.1829295579209</v>
+        <v>507.8896731430693</v>
       </c>
       <c r="E22" t="n">
-        <v>613.6241174171234</v>
+        <v>507.8896731430693</v>
       </c>
       <c r="F22" t="n">
-        <v>456.2981826300963</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="G22" t="n">
-        <v>288.953922538422</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I22" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J22" t="n">
-        <v>69.098484758947</v>
+        <v>69.09848475894705</v>
       </c>
       <c r="K22" t="n">
         <v>254.5315649273075</v>
       </c>
       <c r="L22" t="n">
-        <v>551.2290272393996</v>
+        <v>551.2290272394</v>
       </c>
       <c r="M22" t="n">
-        <v>877.2968956781576</v>
+        <v>877.2968956781581</v>
       </c>
       <c r="N22" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O22" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P22" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q22" t="n">
         <v>1791.491063604352</v>
@@ -5937,25 +5937,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S22" t="n">
-        <v>1604.530204619839</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T22" t="n">
-        <v>1604.530204619839</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="U22" t="n">
-        <v>1604.530204619839</v>
+        <v>1274.270145951095</v>
       </c>
       <c r="V22" t="n">
-        <v>1338.550859440663</v>
+        <v>1008.29080077192</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.229179280718</v>
+        <v>724.9603987030973</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.229179280718</v>
+        <v>678.0947910770801</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.229179280718</v>
+        <v>678.0947910770801</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1079.772947378812</v>
+        <v>1541.84109173858</v>
       </c>
       <c r="C23" t="n">
-        <v>1079.772947378812</v>
+        <v>1148.66559024151</v>
       </c>
       <c r="D23" t="n">
-        <v>1079.772947378812</v>
+        <v>763.2244614581778</v>
       </c>
       <c r="E23" t="n">
-        <v>677.1894224953562</v>
+        <v>763.2244614581778</v>
       </c>
       <c r="F23" t="n">
-        <v>260.2949840253344</v>
+        <v>516.6025558929203</v>
       </c>
       <c r="G23" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="H23" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I23" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J23" t="n">
-        <v>97.53894723026261</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K23" t="n">
-        <v>208.7753247196848</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L23" t="n">
-        <v>420.9991750402978</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M23" t="n">
-        <v>981.8863993313441</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N23" t="n">
-        <v>1542.77362362239</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O23" t="n">
-        <v>1729.638729692077</v>
+        <v>1226.675139524446</v>
       </c>
       <c r="P23" t="n">
-        <v>1866.69812388721</v>
+        <v>1787.562363815493</v>
       </c>
       <c r="Q23" t="n">
-        <v>2266.211007236551</v>
+        <v>2187.075247164833</v>
       </c>
       <c r="R23" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S23" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T23" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U23" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="V23" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="W23" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="X23" t="n">
-        <v>1876.758402169608</v>
+        <v>1541.84109173858</v>
       </c>
       <c r="Y23" t="n">
-        <v>1480.267693090209</v>
+        <v>1541.84109173858</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032404</v>
       </c>
       <c r="C24" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633327</v>
       </c>
       <c r="D24" t="n">
-        <v>515.0178886848121</v>
+        <v>515.017888684813</v>
       </c>
       <c r="E24" t="n">
-        <v>378.5713977956997</v>
+        <v>378.5713977957007</v>
       </c>
       <c r="F24" t="n">
-        <v>254.1395916788316</v>
+        <v>254.1395916788325</v>
       </c>
       <c r="G24" t="n">
-        <v>135.1649720606364</v>
+        <v>135.1649720606374</v>
       </c>
       <c r="H24" t="n">
         <v>57.34828670724048</v>
@@ -6068,25 +6068,25 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J24" t="n">
-        <v>64.19135336813757</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K24" t="n">
-        <v>147.2389252309062</v>
+        <v>619.3838378446865</v>
       </c>
       <c r="L24" t="n">
-        <v>686.014832068138</v>
+        <v>761.1611986719515</v>
       </c>
       <c r="M24" t="n">
-        <v>864.0442892594389</v>
+        <v>939.1906558632523</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.151275634646</v>
+        <v>1131.29764223846</v>
       </c>
       <c r="O24" t="n">
-        <v>1617.038499925692</v>
+        <v>1292.595136746447</v>
       </c>
       <c r="P24" t="n">
-        <v>2177.925724216739</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q24" t="n">
         <v>2223.615425142454</v>
@@ -6095,25 +6095,25 @@
         <v>2266.211007236551</v>
       </c>
       <c r="S24" t="n">
-        <v>2151.43741277939</v>
+        <v>2151.437412779391</v>
       </c>
       <c r="T24" t="n">
-        <v>1978.827711710032</v>
+        <v>1978.827711710033</v>
       </c>
       <c r="U24" t="n">
-        <v>1768.835963014328</v>
+        <v>1768.835963014329</v>
       </c>
       <c r="V24" t="n">
-        <v>1546.295961385395</v>
+        <v>1546.295961385396</v>
       </c>
       <c r="W24" t="n">
-        <v>1316.178715518682</v>
+        <v>1316.178715518683</v>
       </c>
       <c r="X24" t="n">
-        <v>1126.871637868694</v>
+        <v>1126.871637868695</v>
       </c>
       <c r="Y24" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442018</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.32422014473102</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="C25" t="n">
-        <v>45.32422014473102</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="D25" t="n">
-        <v>45.32422014473102</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="E25" t="n">
-        <v>45.32422014473102</v>
+        <v>517.3840720157132</v>
       </c>
       <c r="F25" t="n">
-        <v>45.32422014473102</v>
+        <v>360.0581372286862</v>
       </c>
       <c r="G25" t="n">
-        <v>45.32422014473102</v>
+        <v>192.7138771370119</v>
       </c>
       <c r="H25" t="n">
         <v>45.32422014473102</v>
@@ -6147,7 +6147,7 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J25" t="n">
-        <v>78.59288363159101</v>
+        <v>78.59288363159102</v>
       </c>
       <c r="K25" t="n">
         <v>264.0259637999515</v>
@@ -6171,28 +6171,28 @@
         <v>1800.985462476996</v>
       </c>
       <c r="R25" t="n">
-        <v>1717.992111097946</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S25" t="n">
-        <v>1531.031252113434</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="T25" t="n">
-        <v>1299.199501101429</v>
+        <v>1569.15371146499</v>
       </c>
       <c r="U25" t="n">
-        <v>1013.810334460178</v>
+        <v>1283.764544823739</v>
       </c>
       <c r="V25" t="n">
-        <v>747.8309892810018</v>
+        <v>1257.906857484909</v>
       </c>
       <c r="W25" t="n">
-        <v>464.5005872121795</v>
+        <v>974.5764554160868</v>
       </c>
       <c r="X25" t="n">
-        <v>230.4202649951626</v>
+        <v>740.4961331990698</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.32422014473102</v>
+        <v>517.3840720157132</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1079.772947378812</v>
+        <v>937.1057072027454</v>
       </c>
       <c r="C26" t="n">
-        <v>864.8021834982087</v>
+        <v>919.1860807763758</v>
       </c>
       <c r="D26" t="n">
-        <v>864.8021834982087</v>
+        <v>919.1860807763758</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2186586147533</v>
+        <v>516.6025558929203</v>
       </c>
       <c r="F26" t="n">
-        <v>45.32422014473102</v>
+        <v>516.6025558929203</v>
       </c>
       <c r="G26" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="H26" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I26" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J26" t="n">
-        <v>97.53894723026261</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K26" t="n">
-        <v>208.7753247196848</v>
+        <v>885.2582021530011</v>
       </c>
       <c r="L26" t="n">
-        <v>420.9991750402978</v>
+        <v>1047.24290982963</v>
       </c>
       <c r="M26" t="n">
-        <v>981.8863993313441</v>
+        <v>1248.067242570297</v>
       </c>
       <c r="N26" t="n">
-        <v>1542.77362362239</v>
+        <v>1455.140098416326</v>
       </c>
       <c r="O26" t="n">
-        <v>1729.638729692077</v>
+        <v>1642.005204486012</v>
       </c>
       <c r="P26" t="n">
-        <v>1866.69812388721</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q26" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R26" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S26" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T26" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U26" t="n">
-        <v>2266.211007236551</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V26" t="n">
-        <v>2266.211007236551</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="W26" t="n">
-        <v>2266.211007236551</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="X26" t="n">
-        <v>1876.758402169608</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="Y26" t="n">
-        <v>1480.267693090209</v>
+        <v>937.1057072027454</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032402</v>
       </c>
       <c r="C27" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633323</v>
       </c>
       <c r="D27" t="n">
-        <v>515.0178886848121</v>
+        <v>515.0178886848128</v>
       </c>
       <c r="E27" t="n">
-        <v>378.5713977956997</v>
+        <v>378.5713977957005</v>
       </c>
       <c r="F27" t="n">
-        <v>254.1395916788316</v>
+        <v>254.1395916788322</v>
       </c>
       <c r="G27" t="n">
-        <v>135.1649720606364</v>
+        <v>135.164972060637</v>
       </c>
       <c r="H27" t="n">
-        <v>57.34828670724048</v>
+        <v>57.34828670724073</v>
       </c>
       <c r="I27" t="n">
         <v>45.32422014473102</v>
@@ -6311,46 +6311,46 @@
         <v>750.4140322528601</v>
       </c>
       <c r="L27" t="n">
-        <v>892.1913930801251</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M27" t="n">
-        <v>1453.078617371171</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N27" t="n">
-        <v>1645.185603746378</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O27" t="n">
-        <v>1806.483098254366</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P27" t="n">
-        <v>2220.521306310834</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2266.21100723655</v>
+        <v>2223.615425142454</v>
       </c>
       <c r="R27" t="n">
-        <v>2266.21100723655</v>
+        <v>2266.211007236551</v>
       </c>
       <c r="S27" t="n">
-        <v>2151.43741277939</v>
+        <v>2151.437412779391</v>
       </c>
       <c r="T27" t="n">
-        <v>1978.827711710032</v>
+        <v>1978.827711710033</v>
       </c>
       <c r="U27" t="n">
-        <v>1768.835963014328</v>
+        <v>1768.835963014329</v>
       </c>
       <c r="V27" t="n">
-        <v>1546.295961385395</v>
+        <v>1546.295961385396</v>
       </c>
       <c r="W27" t="n">
-        <v>1316.178715518682</v>
+        <v>1316.178715518683</v>
       </c>
       <c r="X27" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y27" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442016</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1043.692686044113</v>
+        <v>600.5556233086742</v>
       </c>
       <c r="C28" t="n">
-        <v>873.4875681101018</v>
+        <v>600.5556233086742</v>
       </c>
       <c r="D28" t="n">
-        <v>717.8544550126167</v>
+        <v>600.5556233086742</v>
       </c>
       <c r="E28" t="n">
-        <v>623.1185162897675</v>
+        <v>444.9968111678767</v>
       </c>
       <c r="F28" t="n">
-        <v>465.7925815027404</v>
+        <v>287.6708763808496</v>
       </c>
       <c r="G28" t="n">
-        <v>298.4483214110661</v>
+        <v>287.6708763808496</v>
       </c>
       <c r="H28" t="n">
-        <v>151.0586644187852</v>
+        <v>140.2812193885688</v>
       </c>
       <c r="I28" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J28" t="n">
-        <v>78.59288363159101</v>
+        <v>78.59288363159102</v>
       </c>
       <c r="K28" t="n">
         <v>264.0259637999515</v>
@@ -6408,28 +6408,28 @@
         <v>1800.985462476996</v>
       </c>
       <c r="R28" t="n">
-        <v>1717.992111097946</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S28" t="n">
-        <v>1717.992111097946</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="T28" t="n">
-        <v>1717.992111097946</v>
+        <v>1569.15371146499</v>
       </c>
       <c r="U28" t="n">
-        <v>1717.992111097946</v>
+        <v>1569.15371146499</v>
       </c>
       <c r="V28" t="n">
-        <v>1452.012765918771</v>
+        <v>1303.174366285815</v>
       </c>
       <c r="W28" t="n">
-        <v>1452.012765918771</v>
+        <v>1019.843964216992</v>
       </c>
       <c r="X28" t="n">
-        <v>1452.012765918771</v>
+        <v>785.7636419999754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1228.900704735414</v>
+        <v>785.7636419999754</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1079.772947378812</v>
+        <v>1163.803952694411</v>
       </c>
       <c r="C29" t="n">
-        <v>686.5974458817423</v>
+        <v>1163.803952694411</v>
       </c>
       <c r="D29" t="n">
-        <v>686.5974458817423</v>
+        <v>1163.803952694411</v>
       </c>
       <c r="E29" t="n">
-        <v>686.5974458817423</v>
+        <v>1163.803952694411</v>
       </c>
       <c r="F29" t="n">
-        <v>269.70300741172</v>
+        <v>746.909514224389</v>
       </c>
       <c r="G29" t="n">
-        <v>45.32422014473102</v>
+        <v>335.774987943701</v>
       </c>
       <c r="H29" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I29" t="n">
         <v>45.32422014473102</v>
@@ -6469,46 +6469,46 @@
         <v>469.9281371914356</v>
       </c>
       <c r="L29" t="n">
-        <v>631.9128448680641</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M29" t="n">
-        <v>1192.800069159111</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N29" t="n">
-        <v>1542.77362362239</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O29" t="n">
-        <v>1729.638729692077</v>
+        <v>1226.675139524446</v>
       </c>
       <c r="P29" t="n">
-        <v>1866.69812388721</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q29" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R29" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S29" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T29" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U29" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="V29" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="W29" t="n">
-        <v>2266.211007236551</v>
+        <v>1560.29466177381</v>
       </c>
       <c r="X29" t="n">
-        <v>1876.758402169608</v>
+        <v>1560.29466177381</v>
       </c>
       <c r="Y29" t="n">
-        <v>1480.267693090209</v>
+        <v>1163.803952694411</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>750.4140322528601</v>
       </c>
       <c r="L30" t="n">
-        <v>892.1913930801251</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M30" t="n">
         <v>1070.220850271426</v>
       </c>
       <c r="N30" t="n">
-        <v>1575.295900006668</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O30" t="n">
-        <v>1736.593394514656</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P30" t="n">
         <v>1853.482361037492</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.32422014473102</v>
+        <v>695.7583450982406</v>
       </c>
       <c r="C31" t="n">
-        <v>45.32422014473102</v>
+        <v>525.5532271642298</v>
       </c>
       <c r="D31" t="n">
-        <v>45.32422014473102</v>
+        <v>525.5532271642298</v>
       </c>
       <c r="E31" t="n">
-        <v>45.32422014473102</v>
+        <v>369.9944150234324</v>
       </c>
       <c r="F31" t="n">
-        <v>45.32422014473102</v>
+        <v>212.6684802364053</v>
       </c>
       <c r="G31" t="n">
         <v>45.32422014473102</v>
@@ -6621,7 +6621,7 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J31" t="n">
-        <v>78.59288363159101</v>
+        <v>78.59288363159102</v>
       </c>
       <c r="K31" t="n">
         <v>264.0259637999515</v>
@@ -6645,28 +6645,28 @@
         <v>1800.985462476996</v>
       </c>
       <c r="R31" t="n">
-        <v>1717.992111097946</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S31" t="n">
-        <v>1531.031252113434</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="T31" t="n">
-        <v>1299.199501101429</v>
+        <v>1569.15371146499</v>
       </c>
       <c r="U31" t="n">
-        <v>1013.810334460178</v>
+        <v>1569.15371146499</v>
       </c>
       <c r="V31" t="n">
-        <v>747.8309892810018</v>
+        <v>1303.174366285815</v>
       </c>
       <c r="W31" t="n">
-        <v>464.5005872121795</v>
+        <v>1019.843964216992</v>
       </c>
       <c r="X31" t="n">
-        <v>268.4362813280877</v>
+        <v>918.8704062815973</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.32422014473102</v>
+        <v>695.7583450982406</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1469.225552445755</v>
+        <v>508.0515544956879</v>
       </c>
       <c r="C32" t="n">
-        <v>1076.050050948686</v>
+        <v>508.0515544956879</v>
       </c>
       <c r="D32" t="n">
-        <v>1076.050050948686</v>
+        <v>508.0515544956879</v>
       </c>
       <c r="E32" t="n">
-        <v>673.46652606523</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="F32" t="n">
-        <v>256.5720875952078</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="G32" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="H32" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I32" t="n">
         <v>45.32422014473102</v>
@@ -6703,49 +6703,49 @@
         <v>358.6917597020133</v>
       </c>
       <c r="K32" t="n">
-        <v>586.9137389388262</v>
+        <v>789.3296436322446</v>
       </c>
       <c r="L32" t="n">
-        <v>748.8984466154548</v>
+        <v>951.3143513088731</v>
       </c>
       <c r="M32" t="n">
-        <v>1309.785670906501</v>
+        <v>1152.13868404954</v>
       </c>
       <c r="N32" t="n">
-        <v>1870.672895197547</v>
+        <v>1359.211539895569</v>
       </c>
       <c r="O32" t="n">
-        <v>2057.538001267234</v>
+        <v>1546.076645965256</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.597395462367</v>
+        <v>2106.963870256302</v>
       </c>
       <c r="Q32" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R32" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S32" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T32" t="n">
-        <v>2266.211007236551</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U32" t="n">
-        <v>2266.211007236551</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V32" t="n">
-        <v>2266.211007236551</v>
+        <v>1333.596416282144</v>
       </c>
       <c r="W32" t="n">
-        <v>2266.211007236551</v>
+        <v>1293.99486864203</v>
       </c>
       <c r="X32" t="n">
-        <v>2266.211007236551</v>
+        <v>904.5422635750867</v>
       </c>
       <c r="Y32" t="n">
-        <v>1869.720298157152</v>
+        <v>508.0515544956879</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032395</v>
       </c>
       <c r="C33" t="n">
-        <v>645.1068560633324</v>
+        <v>645.1068560633317</v>
       </c>
       <c r="D33" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848121</v>
       </c>
       <c r="E33" t="n">
-        <v>378.5713977957004</v>
+        <v>378.5713977956997</v>
       </c>
       <c r="F33" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788316</v>
       </c>
       <c r="G33" t="n">
         <v>135.1649720606364</v>
@@ -6779,52 +6779,52 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J33" t="n">
-        <v>64.19135336813757</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K33" t="n">
-        <v>555.6790372731326</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L33" t="n">
-        <v>1116.566261564179</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M33" t="n">
-        <v>1677.453485855225</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N33" t="n">
-        <v>1869.560472230432</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O33" t="n">
-        <v>2030.85796673842</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P33" t="n">
-        <v>2177.925724216739</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q33" t="n">
-        <v>2223.615425142454</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R33" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S33" t="n">
-        <v>2151.437412779391</v>
+        <v>2151.43741277939</v>
       </c>
       <c r="T33" t="n">
-        <v>1978.827711710033</v>
+        <v>1978.827711710032</v>
       </c>
       <c r="U33" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V33" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W33" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X33" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y33" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442009</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>230.4202649951626</v>
+        <v>473.8131052096275</v>
       </c>
       <c r="C34" t="n">
-        <v>230.4202649951626</v>
+        <v>303.6079872756167</v>
       </c>
       <c r="D34" t="n">
-        <v>230.4202649951626</v>
+        <v>303.6079872756167</v>
       </c>
       <c r="E34" t="n">
-        <v>230.4202649951626</v>
+        <v>303.6079872756167</v>
       </c>
       <c r="F34" t="n">
-        <v>230.4202649951626</v>
+        <v>146.2820524885896</v>
       </c>
       <c r="G34" t="n">
-        <v>230.4202649951626</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H34" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I34" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J34" t="n">
-        <v>78.59288363159101</v>
+        <v>78.59288363159102</v>
       </c>
       <c r="K34" t="n">
         <v>264.0259637999515</v>
@@ -6882,28 +6882,28 @@
         <v>1800.985462476996</v>
       </c>
       <c r="R34" t="n">
-        <v>1717.992111097946</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S34" t="n">
-        <v>1531.031252113434</v>
+        <v>1614.024603492483</v>
       </c>
       <c r="T34" t="n">
-        <v>1299.199501101429</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U34" t="n">
-        <v>1013.810334460178</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="V34" t="n">
-        <v>747.8309892810018</v>
+        <v>1116.213507301302</v>
       </c>
       <c r="W34" t="n">
-        <v>464.5005872121795</v>
+        <v>1116.213507301302</v>
       </c>
       <c r="X34" t="n">
-        <v>230.4202649951626</v>
+        <v>882.1331850842854</v>
       </c>
       <c r="Y34" t="n">
-        <v>230.4202649951626</v>
+        <v>659.0211239009287</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>452.7242597421093</v>
+        <v>924.7878543175273</v>
       </c>
       <c r="C35" t="n">
-        <v>452.7242597421093</v>
+        <v>531.6123528204578</v>
       </c>
       <c r="D35" t="n">
-        <v>452.7242597421093</v>
+        <v>531.6123528204578</v>
       </c>
       <c r="E35" t="n">
-        <v>452.7242597421093</v>
+        <v>129.0288279370023</v>
       </c>
       <c r="F35" t="n">
         <v>35.82982127208703</v>
@@ -6946,7 +6946,7 @@
         <v>622.4184459954201</v>
       </c>
       <c r="M35" t="n">
-        <v>823.2427787360873</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N35" t="n">
         <v>1030.315634582116</v>
@@ -6967,22 +6967,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T35" t="n">
-        <v>1791.491063604352</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U35" t="n">
-        <v>1639.162319599848</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="V35" t="n">
-        <v>1639.162319599848</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="W35" t="n">
-        <v>1639.162319599848</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="X35" t="n">
-        <v>1249.709714532905</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="Y35" t="n">
-        <v>853.2190054535062</v>
+        <v>924.7878543175273</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>786.2666876305956</v>
+        <v>322.9305426011071</v>
       </c>
       <c r="C36" t="n">
-        <v>635.6124571906878</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="D36" t="n">
-        <v>505.5234898121681</v>
+        <v>172.2763121611993</v>
       </c>
       <c r="E36" t="n">
-        <v>369.0769989230558</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="F36" t="n">
-        <v>244.6451928061876</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="G36" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H36" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I36" t="n">
         <v>35.82982127208703</v>
@@ -7019,49 +7019,49 @@
         <v>249.431949475221</v>
       </c>
       <c r="K36" t="n">
-        <v>631.257734074794</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L36" t="n">
-        <v>773.035094902059</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M36" t="n">
-        <v>951.0645520933598</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N36" t="n">
-        <v>1143.171538468567</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O36" t="n">
-        <v>1304.469032976554</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P36" t="n">
-        <v>1421.357999499391</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q36" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R36" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S36" t="n">
-        <v>1791.491063604352</v>
+        <v>1678.606868877258</v>
       </c>
       <c r="T36" t="n">
-        <v>1791.491063604352</v>
+        <v>1505.9971678079</v>
       </c>
       <c r="U36" t="n">
-        <v>1581.499314908647</v>
+        <v>1296.005419112196</v>
       </c>
       <c r="V36" t="n">
-        <v>1536.801562512751</v>
+        <v>1073.465417483263</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.684316646038</v>
+        <v>843.3481716165495</v>
       </c>
       <c r="X36" t="n">
-        <v>1117.37723899605</v>
+        <v>654.0410939665612</v>
       </c>
       <c r="Y36" t="n">
-        <v>938.0630220715569</v>
+        <v>474.7268770420685</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>857.0405696152059</v>
+        <v>841.897059323082</v>
       </c>
       <c r="C37" t="n">
-        <v>686.8354516811951</v>
+        <v>671.6919413890712</v>
       </c>
       <c r="D37" t="n">
-        <v>531.2023385837099</v>
+        <v>516.0588282915859</v>
       </c>
       <c r="E37" t="n">
-        <v>375.6435264429124</v>
+        <v>360.5000161507884</v>
       </c>
       <c r="F37" t="n">
-        <v>218.3175916558853</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="G37" t="n">
-        <v>50.97333156421101</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H37" t="n">
-        <v>50.97333156421101</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I37" t="n">
         <v>35.82982127208703</v>
       </c>
       <c r="J37" t="n">
-        <v>69.09848475894694</v>
+        <v>69.09848475894704</v>
       </c>
       <c r="K37" t="n">
-        <v>254.5315649273074</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L37" t="n">
-        <v>551.2290272393998</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M37" t="n">
-        <v>877.2968956781577</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N37" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O37" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P37" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q37" t="n">
         <v>1791.491063604352</v>
@@ -7125,22 +7125,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.659312592346</v>
+        <v>1750.276806593933</v>
       </c>
       <c r="U37" t="n">
-        <v>1559.659312592346</v>
+        <v>1750.276806593933</v>
       </c>
       <c r="V37" t="n">
-        <v>1559.659312592346</v>
+        <v>1484.297461414757</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.328910523524</v>
+        <v>1484.297461414757</v>
       </c>
       <c r="X37" t="n">
-        <v>1042.248588306507</v>
+        <v>1250.21713919774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1042.248588306507</v>
+        <v>1027.105078014383</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.8587860227972</v>
+        <v>1085.574718141611</v>
       </c>
       <c r="C38" t="n">
-        <v>863.8587860227972</v>
+        <v>1085.574718141611</v>
       </c>
       <c r="D38" t="n">
-        <v>863.8587860227972</v>
+        <v>756.035707560477</v>
       </c>
       <c r="E38" t="n">
-        <v>863.8587860227972</v>
+        <v>756.035707560477</v>
       </c>
       <c r="F38" t="n">
-        <v>446.964347552775</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="G38" t="n">
-        <v>35.82982127208703</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H38" t="n">
         <v>35.82982127208703</v>
@@ -7177,22 +7177,22 @@
         <v>349.1973608293694</v>
       </c>
       <c r="K38" t="n">
-        <v>481.9085979235687</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L38" t="n">
-        <v>643.8933056001972</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M38" t="n">
-        <v>844.7176383408644</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N38" t="n">
-        <v>1051.790494186893</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O38" t="n">
-        <v>1495.18453242897</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.243926624103</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q38" t="n">
         <v>1703.857538398287</v>
@@ -7201,25 +7201,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S38" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T38" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="U38" t="n">
-        <v>1606.460341030676</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="V38" t="n">
-        <v>1264.353531734194</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="W38" t="n">
-        <v>1264.353531734194</v>
+        <v>1085.574718141611</v>
       </c>
       <c r="X38" t="n">
-        <v>1264.353531734194</v>
+        <v>1085.574718141611</v>
       </c>
       <c r="Y38" t="n">
-        <v>1264.353531734194</v>
+        <v>1085.574718141611</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>786.2666876305956</v>
+        <v>672.9650608648922</v>
       </c>
       <c r="C39" t="n">
-        <v>635.6124571906878</v>
+        <v>522.3108304249844</v>
       </c>
       <c r="D39" t="n">
-        <v>505.5234898121681</v>
+        <v>392.2218630464647</v>
       </c>
       <c r="E39" t="n">
-        <v>369.0769989230558</v>
+        <v>255.7753721573524</v>
       </c>
       <c r="F39" t="n">
-        <v>244.6451928061876</v>
+        <v>131.3435660404842</v>
       </c>
       <c r="G39" t="n">
-        <v>125.6705731879924</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H39" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I39" t="n">
         <v>35.82982127208703</v>
@@ -7256,25 +7256,25 @@
         <v>249.431949475221</v>
       </c>
       <c r="K39" t="n">
-        <v>347.0994818007092</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L39" t="n">
-        <v>488.8768426279741</v>
+        <v>474.2568821652546</v>
       </c>
       <c r="M39" t="n">
-        <v>666.9062998192749</v>
+        <v>652.2863393565553</v>
       </c>
       <c r="N39" t="n">
-        <v>859.013286194482</v>
+        <v>844.3933257317625</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.407324436559</v>
+        <v>1005.69082023975</v>
       </c>
       <c r="P39" t="n">
-        <v>1745.801362678636</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q39" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R39" t="n">
         <v>1791.491063604352</v>
@@ -7283,22 +7283,22 @@
         <v>1676.717469147192</v>
       </c>
       <c r="T39" t="n">
-        <v>1504.107768077834</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="U39" t="n">
-        <v>1504.107768077834</v>
+        <v>1466.725720451488</v>
       </c>
       <c r="V39" t="n">
-        <v>1281.567766448901</v>
+        <v>1244.185718822555</v>
       </c>
       <c r="W39" t="n">
-        <v>1051.450520582188</v>
+        <v>1014.068472955842</v>
       </c>
       <c r="X39" t="n">
-        <v>1051.450520582188</v>
+        <v>824.7613953058535</v>
       </c>
       <c r="Y39" t="n">
-        <v>872.1363036576952</v>
+        <v>824.7613953058535</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>314.3917476234275</v>
+        <v>674.5527992314076</v>
       </c>
       <c r="C40" t="n">
-        <v>144.1866296894167</v>
+        <v>504.3476812973968</v>
       </c>
       <c r="D40" t="n">
-        <v>144.1866296894167</v>
+        <v>348.7145681999116</v>
       </c>
       <c r="E40" t="n">
-        <v>144.1866296894167</v>
+        <v>193.1557560591141</v>
       </c>
       <c r="F40" t="n">
         <v>35.82982127208703</v>
@@ -7329,19 +7329,19 @@
         <v>35.82982127208703</v>
       </c>
       <c r="I40" t="n">
-        <v>35.82982127208682</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="J40" t="n">
-        <v>69.09848475894682</v>
+        <v>69.09848475894705</v>
       </c>
       <c r="K40" t="n">
-        <v>254.5315649273073</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L40" t="n">
-        <v>551.2290272393997</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M40" t="n">
-        <v>877.2968956781576</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N40" t="n">
         <v>1196.939252046641</v>
@@ -7359,25 +7359,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.491063604352</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="T40" t="n">
-        <v>1791.491063604352</v>
+        <v>1582.932546502258</v>
       </c>
       <c r="U40" t="n">
-        <v>1506.1018969631</v>
+        <v>1582.932546502258</v>
       </c>
       <c r="V40" t="n">
-        <v>1240.122551783925</v>
+        <v>1316.953201323082</v>
       </c>
       <c r="W40" t="n">
-        <v>956.7921497151024</v>
+        <v>1316.953201323082</v>
       </c>
       <c r="X40" t="n">
-        <v>722.7118274980854</v>
+        <v>1082.872879106066</v>
       </c>
       <c r="Y40" t="n">
-        <v>499.5997663147288</v>
+        <v>859.7608179227088</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1274.705073074453</v>
+        <v>1242.7233739333</v>
       </c>
       <c r="C41" t="n">
-        <v>883.9982844063761</v>
+        <v>849.5478724362305</v>
       </c>
       <c r="D41" t="n">
-        <v>498.5571556230439</v>
+        <v>849.5478724362305</v>
       </c>
       <c r="E41" t="n">
-        <v>95.9736307395884</v>
+        <v>446.964347552775</v>
       </c>
       <c r="F41" t="n">
-        <v>95.9736307395884</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G41" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="H41" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I41" t="n">
         <v>35.82982127208703</v>
@@ -7414,22 +7414,22 @@
         <v>349.1973608293694</v>
       </c>
       <c r="K41" t="n">
-        <v>460.4337383187916</v>
+        <v>481.9085979235685</v>
       </c>
       <c r="L41" t="n">
-        <v>622.4184459954201</v>
+        <v>643.8933056001971</v>
       </c>
       <c r="M41" t="n">
-        <v>823.2427787360873</v>
+        <v>844.7176383408644</v>
       </c>
       <c r="N41" t="n">
-        <v>1030.315634582116</v>
+        <v>1051.790494186893</v>
       </c>
       <c r="O41" t="n">
-        <v>1217.180740651802</v>
+        <v>1495.18453242897</v>
       </c>
       <c r="P41" t="n">
-        <v>1354.240134846936</v>
+        <v>1632.243926624103</v>
       </c>
       <c r="Q41" t="n">
         <v>1703.857538398287</v>
@@ -7447,16 +7447,16 @@
         <v>1671.195782153852</v>
       </c>
       <c r="V41" t="n">
-        <v>1671.195782153852</v>
+        <v>1329.088972857371</v>
       </c>
       <c r="W41" t="n">
-        <v>1671.195782153852</v>
+        <v>1329.088972857371</v>
       </c>
       <c r="X41" t="n">
-        <v>1671.195782153852</v>
+        <v>1329.088972857371</v>
       </c>
       <c r="Y41" t="n">
-        <v>1274.705073074453</v>
+        <v>1329.088972857371</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>662.1445549619909</v>
+        <v>649.8108149512178</v>
       </c>
       <c r="C42" t="n">
-        <v>511.4903245220831</v>
+        <v>499.15658451131</v>
       </c>
       <c r="D42" t="n">
-        <v>381.4013571435635</v>
+        <v>369.0676171327904</v>
       </c>
       <c r="E42" t="n">
-        <v>244.9548662544512</v>
+        <v>232.6211262436781</v>
       </c>
       <c r="F42" t="n">
-        <v>120.523060137583</v>
+        <v>232.6211262436781</v>
       </c>
       <c r="G42" t="n">
-        <v>120.523060137583</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H42" t="n">
-        <v>42.70637478418709</v>
+        <v>35.82982127208703</v>
       </c>
       <c r="I42" t="n">
         <v>35.82982127208703</v>
@@ -7493,22 +7493,22 @@
         <v>249.431949475221</v>
       </c>
       <c r="K42" t="n">
-        <v>396.4538822422963</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L42" t="n">
-        <v>538.2312430695613</v>
+        <v>474.2568821652546</v>
       </c>
       <c r="M42" t="n">
-        <v>981.6252813116383</v>
+        <v>652.2863393565553</v>
       </c>
       <c r="N42" t="n">
-        <v>1425.019319553715</v>
+        <v>844.3933257317625</v>
       </c>
       <c r="O42" t="n">
-        <v>1586.316814061703</v>
+        <v>1005.69082023975</v>
       </c>
       <c r="P42" t="n">
-        <v>1703.205780584539</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q42" t="n">
         <v>1748.895481510255</v>
@@ -7517,25 +7517,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S42" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T42" t="n">
-        <v>1504.107768077834</v>
+        <v>1681.081105717049</v>
       </c>
       <c r="U42" t="n">
-        <v>1294.11601938213</v>
+        <v>1471.089357021345</v>
       </c>
       <c r="V42" t="n">
-        <v>1071.576017753197</v>
+        <v>1248.549355392412</v>
       </c>
       <c r="W42" t="n">
-        <v>841.4587718864836</v>
+        <v>1018.432109525699</v>
       </c>
       <c r="X42" t="n">
-        <v>841.4587718864836</v>
+        <v>829.1250318757106</v>
       </c>
       <c r="Y42" t="n">
-        <v>662.1445549619909</v>
+        <v>649.8108149512178</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>311.769383480152</v>
+        <v>790.305568810109</v>
       </c>
       <c r="C43" t="n">
-        <v>141.5642655461412</v>
+        <v>620.1004508760982</v>
       </c>
       <c r="D43" t="n">
-        <v>141.5642655461412</v>
+        <v>464.467337778613</v>
       </c>
       <c r="E43" t="n">
-        <v>141.5642655461412</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="F43" t="n">
-        <v>141.5642655461412</v>
+        <v>308.9085256378155</v>
       </c>
       <c r="G43" t="n">
         <v>141.5642655461412</v>
@@ -7569,52 +7569,52 @@
         <v>35.82982127208703</v>
       </c>
       <c r="J43" t="n">
-        <v>69.09848475894682</v>
+        <v>69.09848475894704</v>
       </c>
       <c r="K43" t="n">
-        <v>254.5315649273073</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L43" t="n">
-        <v>551.2290272393997</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M43" t="n">
-        <v>877.2968956781576</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N43" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O43" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P43" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q43" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="R43" t="n">
-        <v>1708.497712225302</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S43" t="n">
-        <v>1521.53685324079</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T43" t="n">
-        <v>1289.705102228785</v>
+        <v>1559.659312592347</v>
       </c>
       <c r="U43" t="n">
-        <v>1004.315935587534</v>
+        <v>1274.270145951096</v>
       </c>
       <c r="V43" t="n">
-        <v>738.3365904083578</v>
+        <v>1274.270145951096</v>
       </c>
       <c r="W43" t="n">
-        <v>455.0061883395354</v>
+        <v>1198.625648684767</v>
       </c>
       <c r="X43" t="n">
-        <v>311.769383480152</v>
+        <v>1198.625648684767</v>
       </c>
       <c r="Y43" t="n">
-        <v>311.769383480152</v>
+        <v>975.5135875014103</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>874.2103273630541</v>
+        <v>1671.195782153849</v>
       </c>
       <c r="C44" t="n">
-        <v>481.0348258659847</v>
+        <v>1278.02028065678</v>
       </c>
       <c r="D44" t="n">
-        <v>95.59369708265245</v>
+        <v>1152.859320254598</v>
       </c>
       <c r="E44" t="n">
-        <v>35.82982127208699</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="F44" t="n">
-        <v>35.82982127208699</v>
+        <v>750.2757953711427</v>
       </c>
       <c r="G44" t="n">
-        <v>35.82982127208699</v>
+        <v>339.1412690904547</v>
       </c>
       <c r="H44" t="n">
-        <v>35.82982127208699</v>
+        <v>35.82982127208697</v>
       </c>
       <c r="I44" t="n">
-        <v>35.82982127208699</v>
+        <v>35.82982127208697</v>
       </c>
       <c r="J44" t="n">
-        <v>88.04454835761858</v>
+        <v>349.1973608293693</v>
       </c>
       <c r="K44" t="n">
-        <v>531.4385865996951</v>
+        <v>792.5913990714456</v>
       </c>
       <c r="L44" t="n">
-        <v>693.4232942763236</v>
+        <v>954.5761067480742</v>
       </c>
       <c r="M44" t="n">
-        <v>1101.246570513252</v>
+        <v>1155.400439488742</v>
       </c>
       <c r="N44" t="n">
-        <v>1308.319426359281</v>
+        <v>1395.952951565345</v>
       </c>
       <c r="O44" t="n">
-        <v>1495.184532428968</v>
+        <v>1582.818057635032</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.243926624101</v>
+        <v>1719.877451830165</v>
       </c>
       <c r="Q44" t="n">
-        <v>1703.857538398285</v>
+        <v>1791.491063604349</v>
       </c>
       <c r="R44" t="n">
         <v>1791.491063604349</v>
       </c>
       <c r="S44" t="n">
-        <v>1671.19578215385</v>
+        <v>1671.195782153849</v>
       </c>
       <c r="T44" t="n">
-        <v>1671.19578215385</v>
+        <v>1671.195782153849</v>
       </c>
       <c r="U44" t="n">
-        <v>1671.19578215385</v>
+        <v>1671.195782153849</v>
       </c>
       <c r="V44" t="n">
-        <v>1671.19578215385</v>
+        <v>1671.195782153849</v>
       </c>
       <c r="W44" t="n">
-        <v>1671.19578215385</v>
+        <v>1671.195782153849</v>
       </c>
       <c r="X44" t="n">
-        <v>1671.19578215385</v>
+        <v>1671.195782153849</v>
       </c>
       <c r="Y44" t="n">
-        <v>1274.705073074451</v>
+        <v>1671.195782153849</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>786.2666876305955</v>
+        <v>774.242621068086</v>
       </c>
       <c r="C45" t="n">
-        <v>635.6124571906877</v>
+        <v>623.5883906281782</v>
       </c>
       <c r="D45" t="n">
-        <v>505.523489812168</v>
+        <v>493.4994232496585</v>
       </c>
       <c r="E45" t="n">
-        <v>369.0769989230557</v>
+        <v>357.0529323605463</v>
       </c>
       <c r="F45" t="n">
-        <v>244.6451928061875</v>
+        <v>232.621126243678</v>
       </c>
       <c r="G45" t="n">
-        <v>125.6705731879923</v>
+        <v>113.6465066254829</v>
       </c>
       <c r="H45" t="n">
-        <v>47.85388783459646</v>
+        <v>35.82982127208697</v>
       </c>
       <c r="I45" t="n">
-        <v>35.82982127208699</v>
+        <v>35.82982127208697</v>
       </c>
       <c r="J45" t="n">
-        <v>54.69695449549354</v>
+        <v>249.4319494752209</v>
       </c>
       <c r="K45" t="n">
-        <v>498.09099273757</v>
+        <v>588.6621519806938</v>
       </c>
       <c r="L45" t="n">
-        <v>639.8683535648349</v>
+        <v>730.4395128079589</v>
       </c>
       <c r="M45" t="n">
-        <v>817.8978107561356</v>
+        <v>908.4689699992597</v>
       </c>
       <c r="N45" t="n">
-        <v>1261.291848998212</v>
+        <v>1100.575956374467</v>
       </c>
       <c r="O45" t="n">
-        <v>1422.589343506199</v>
+        <v>1261.873450882454</v>
       </c>
       <c r="P45" t="n">
-        <v>1539.478310029036</v>
+        <v>1378.762417405291</v>
       </c>
       <c r="Q45" t="n">
         <v>1748.895481510252</v>
@@ -7754,25 +7754,25 @@
         <v>1791.491063604349</v>
       </c>
       <c r="S45" t="n">
-        <v>1676.71746914719</v>
+        <v>1676.717469147189</v>
       </c>
       <c r="T45" t="n">
-        <v>1676.71746914719</v>
+        <v>1504.107768077831</v>
       </c>
       <c r="U45" t="n">
-        <v>1676.71746914719</v>
+        <v>1504.107768077831</v>
       </c>
       <c r="V45" t="n">
-        <v>1536.801562512751</v>
+        <v>1281.567766448898</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.684316646038</v>
+        <v>1051.450520582185</v>
       </c>
       <c r="X45" t="n">
-        <v>1117.37723899605</v>
+        <v>1051.450520582185</v>
       </c>
       <c r="Y45" t="n">
-        <v>938.0630220715568</v>
+        <v>872.1363036576922</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.82982127208699</v>
+        <v>989.2867163153628</v>
       </c>
       <c r="C46" t="n">
-        <v>35.82982127208699</v>
+        <v>819.081598381352</v>
       </c>
       <c r="D46" t="n">
-        <v>35.82982127208699</v>
+        <v>663.4484852838667</v>
       </c>
       <c r="E46" t="n">
-        <v>35.82982127208699</v>
+        <v>507.8896731430692</v>
       </c>
       <c r="F46" t="n">
-        <v>35.82982127208699</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="G46" t="n">
-        <v>35.82982127208699</v>
+        <v>183.2194782643678</v>
       </c>
       <c r="H46" t="n">
-        <v>35.82982127208699</v>
+        <v>35.82982127208697</v>
       </c>
       <c r="I46" t="n">
-        <v>35.82982127208699</v>
+        <v>35.82982127208697</v>
       </c>
       <c r="J46" t="n">
-        <v>69.098484758947</v>
+        <v>69.09848475894364</v>
       </c>
       <c r="K46" t="n">
-        <v>254.5315649273075</v>
+        <v>254.5315649273041</v>
       </c>
       <c r="L46" t="n">
-        <v>551.2290272393998</v>
+        <v>551.2290272393965</v>
       </c>
       <c r="M46" t="n">
-        <v>877.2968956781577</v>
+        <v>877.2968956781544</v>
       </c>
       <c r="N46" t="n">
-        <v>1196.939252046641</v>
+        <v>1196.939252046638</v>
       </c>
       <c r="O46" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679918</v>
       </c>
       <c r="P46" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241567</v>
       </c>
       <c r="Q46" t="n">
         <v>1791.491063604349</v>
       </c>
       <c r="R46" t="n">
-        <v>1708.4977122253</v>
+        <v>1791.491063604349</v>
       </c>
       <c r="S46" t="n">
-        <v>1521.536853240788</v>
+        <v>1604.530204619836</v>
       </c>
       <c r="T46" t="n">
-        <v>1289.705102228782</v>
+        <v>1604.530204619836</v>
       </c>
       <c r="U46" t="n">
-        <v>1004.315935587531</v>
+        <v>1604.530204619836</v>
       </c>
       <c r="V46" t="n">
-        <v>738.3365904083555</v>
+        <v>1397.606796190021</v>
       </c>
       <c r="W46" t="n">
-        <v>455.0061883395331</v>
+        <v>1397.606796190021</v>
       </c>
       <c r="X46" t="n">
-        <v>221.0378399633883</v>
+        <v>1397.606796190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>221.0378399633883</v>
+        <v>1174.494735006664</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>280.8119108860282</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>280.8119108860277</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8771,7 +8771,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>258.7703339825331</v>
+        <v>4.945029066502599</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>253.8253049160301</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.47253646344818</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
         <v>166.520275497658</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>59.90168983463468</v>
       </c>
       <c r="P14" t="n">
-        <v>38.11923778593518</v>
+        <v>309.4289333807512</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.99890267249441</v>
+        <v>13.9989026724944</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>258.7703339825331</v>
+        <v>258.7703339825322</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>278.4750710187352</v>
+        <v>278.4750710187345</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
@@ -9166,7 +9166,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>38.1192377859347</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>280.8119108860277</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>363.986329676069</v>
+        <v>301.7961744816203</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>91.48601943750111</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>27.98796440657267</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>280.8119108860279</v>
+        <v>280.8119108860281</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9482,7 +9482,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>258.7703339825329</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>50.74660873129744</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>363.6998904549284</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>357.3882509545635</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>428.108919288801</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>13.99890267249441</v>
+        <v>93.93401385604734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>280.2120380141948</v>
       </c>
       <c r="L24" t="n">
-        <v>401.0086323332998</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>403.6259896798576</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>448.4830886547571</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>419.5253181429955</v>
       </c>
       <c r="L26" t="n">
-        <v>50.74660873129744</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>363.6998904549284</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>357.3882509545635</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>386.7250172724702</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>300.1507490238708</v>
+        <v>316.1293569293292</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>363.6998904549283</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>144.3441400174258</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>419.5253181429958</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>316.1293569293288</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>316.1293569293283</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10351,28 +10351,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>118.1672744923138</v>
+        <v>322.6277842836455</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>363.6998904549283</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>357.3882509545635</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>428.108919288801</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.99890267249441</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>423.343296428062</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>386.7250172724702</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>30.48362722775983</v>
+        <v>316.1293569293283</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>301.7961744816207</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>21.69177737856273</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>259.120133507465</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>280.8119108860279</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10904,7 +10904,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>14.76763683102988</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>284.9460037718078</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>329.8031027467074</v>
+        <v>258.7703339825326</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>21.69177737856253</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>259.1201335074649</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>280.8119108860279</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11141,25 +11141,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>64.62056657000683</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>258.7703339825326</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.47253646344819</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
         <v>166.520275497658</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>335.5127886390447</v>
+        <v>335.5127886390445</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>209.0898419154157</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>33.81783457633824</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>13.9989026724944</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>363.9863296760685</v>
+        <v>258.7703339825296</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>253.8253049160296</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.3812833893949</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>52.47253646344502</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
@@ -11475,7 +11475,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.93501506929</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>86.49856651222325</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>336.5886284682105</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>59.54237137282635</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>84.51890185402459</v>
+        <v>51.59965272103928</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.90382589688437</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.171346453995</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.2470320923416978</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.6708174907576</v>
@@ -23466,7 +23466,7 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.4438352351314</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23506,16 +23506,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.54237137282635</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>106.0163178497686</v>
       </c>
     </row>
     <row r="15">
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>50.8138907867567</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>47.55549749149418</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>14.14067894123598</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U16" t="n">
-        <v>273.1541112562525</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>135.3262313583334</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>51.18821514138938</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -23752,7 +23752,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I17" t="n">
-        <v>59.54237137282635</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.480383354163109</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>12.44261429126945</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.915760422358</v>
+        <v>120.0651068098313</v>
       </c>
       <c r="I19" t="n">
         <v>104.6770998313136</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.184359962931083</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S19" t="n">
         <v>185.0912503946672</v>
       </c>
       <c r="T19" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -23989,7 +23989,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I20" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4758086907236</v>
+        <v>39.91955359000534</v>
       </c>
       <c r="U20" t="n">
         <v>253.0345665146277</v>
       </c>
       <c r="V20" t="n">
-        <v>166.4590631610764</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.480383354162882</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
@@ -24068,7 +24068,7 @@
         <v>77.03851849986194</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.870505732764968</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T22" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>222.7586346897885</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>185.3425674450897</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>168.5698075757172</v>
       </c>
       <c r="G23" t="n">
-        <v>194.2021247760837</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I23" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.0345665146277</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>104.6770998313136</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>237.7204412619419</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.63585616959585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>176.4226902403017</v>
+        <v>371.5033163199927</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I26" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>60.21464468376887</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>10.66967057991428</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S28" t="n">
         <v>185.0912503946672</v>
       </c>
       <c r="T28" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5352749748386</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>184.888181623562</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>300.2783333401841</v>
+        <v>72.27444459203014</v>
       </c>
       <c r="I29" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0345665146277</v>
@@ -24742,10 +24742,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>145.915760422358</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>37.63585616959583</v>
+        <v>131.7756966388056</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>197.8877922419091</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H32" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I32" t="n">
-        <v>59.54237137282635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>328.0835125176822</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25086,16 +25086,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6708174907576</v>
+        <v>65.72256347033756</v>
       </c>
       <c r="H34" t="n">
-        <v>67.34777585174447</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>320.4584774870559</v>
       </c>
       <c r="G35" t="n">
         <v>407.0231810178811</v>
@@ -25174,7 +25174,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I35" t="n">
-        <v>59.54237137282635</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T35" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.2291099501692</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25219,7 +25219,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>113.625858512588</v>
+        <v>1.870505732765238</v>
       </c>
       <c r="T36" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>176.0638267407063</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I37" t="n">
-        <v>89.6850246421109</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>185.0912503946672</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>188.71131906157</v>
       </c>
       <c r="U37" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>55.34309702017663</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H38" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>59.54237137282635</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>69.85415116668867</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.26745122972312</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>100.2647846011619</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.8836040586646</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.47943510600042</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.6708174907576</v>
@@ -25599,19 +25599,19 @@
         <v>82.16341786525869</v>
       </c>
       <c r="S40" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.5134335018853</v>
+        <v>208.1317519654799</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>310.9878553194528</v>
       </c>
       <c r="C41" t="n">
-        <v>2.444025700702241</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.096037919905314</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>61.57774575023517</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.915760422358</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>205.6090457544685</v>
       </c>
       <c r="X43" t="n">
-        <v>89.93508218405714</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>257.6773666973393</v>
       </c>
       <c r="E44" t="n">
-        <v>339.3914525821611</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>59.54237137282635</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>53.36362533284158</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.8836040586646</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>207.8918312087472</v>
       </c>
       <c r="V45" t="n">
-        <v>81.79785404454913</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>104.6770998313136</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>82.16341786525869</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>58.46537738186669</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0.1108541024632927</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481403.0878283772</v>
+        <v>481403.0878283771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481403.0878283772</v>
+        <v>481403.087828377</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481403.0878283771</v>
+        <v>481403.0878283772</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>559063.5663045477</v>
+        <v>559063.5663045475</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559063.5663045474</v>
+        <v>559063.5663045475</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>559063.5663045476</v>
+        <v>559063.5663045475</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481403.0878283771</v>
+        <v>481403.0878283772</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481403.087828377</v>
+        <v>481403.0878283772</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481403.0878283766</v>
+        <v>481403.0878283764</v>
       </c>
     </row>
   </sheetData>
@@ -26319,31 +26319,31 @@
         <v>521707.7418126792</v>
       </c>
       <c r="D2" t="n">
-        <v>521707.7418126793</v>
+        <v>521707.7418126792</v>
       </c>
       <c r="E2" t="n">
+        <v>309198.2112946189</v>
+      </c>
+      <c r="F2" t="n">
+        <v>309198.211294619</v>
+      </c>
+      <c r="G2" t="n">
         <v>309198.2112946191</v>
       </c>
-      <c r="F2" t="n">
-        <v>309198.2112946193</v>
-      </c>
-      <c r="G2" t="n">
-        <v>309198.2112946192</v>
-      </c>
       <c r="H2" t="n">
-        <v>309198.2112946191</v>
+        <v>309198.211294619</v>
       </c>
       <c r="I2" t="n">
-        <v>349935.9187342621</v>
+        <v>349935.9187342619</v>
       </c>
       <c r="J2" t="n">
         <v>349935.9187342621</v>
       </c>
       <c r="K2" t="n">
-        <v>349935.9187342622</v>
+        <v>349935.9187342621</v>
       </c>
       <c r="L2" t="n">
-        <v>349935.9187342621</v>
+        <v>349935.9187342619</v>
       </c>
       <c r="M2" t="n">
         <v>309198.2112946191</v>
@@ -26352,10 +26352,10 @@
         <v>309198.211294619</v>
       </c>
       <c r="O2" t="n">
-        <v>309198.211294619</v>
+        <v>309198.2112946191</v>
       </c>
       <c r="P2" t="n">
-        <v>309198.2112946191</v>
+        <v>309198.2112946186</v>
       </c>
     </row>
     <row r="3">
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.062368439510465e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>31559.50053265451</v>
+        <v>31559.50053265449</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>82036.15754538511</v>
+        <v>82036.15754538508</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>377542.8357541459</v>
       </c>
       <c r="E4" t="n">
-        <v>44649.16264904798</v>
+        <v>44649.16264904797</v>
       </c>
       <c r="F4" t="n">
-        <v>44649.16264904798</v>
+        <v>44649.16264904795</v>
       </c>
       <c r="G4" t="n">
         <v>44649.16264904797</v>
@@ -26438,16 +26438,16 @@
         <v>44649.16264904798</v>
       </c>
       <c r="I4" t="n">
-        <v>64800.9475338197</v>
+        <v>64800.94753381969</v>
       </c>
       <c r="J4" t="n">
-        <v>64800.94753381969</v>
+        <v>64800.94753381968</v>
       </c>
       <c r="K4" t="n">
-        <v>64800.94753381969</v>
+        <v>64800.94753381968</v>
       </c>
       <c r="L4" t="n">
-        <v>64800.94753381971</v>
+        <v>64800.94753381965</v>
       </c>
       <c r="M4" t="n">
         <v>44649.16264904797</v>
@@ -26456,10 +26456,10 @@
         <v>44649.16264904797</v>
       </c>
       <c r="O4" t="n">
-        <v>44649.16264904797</v>
+        <v>44649.16264904795</v>
       </c>
       <c r="P4" t="n">
-        <v>44649.16264904786</v>
+        <v>44649.1626490478</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>38119.25843022532</v>
       </c>
       <c r="P5" t="n">
-        <v>38119.25843022529</v>
+        <v>38119.25843022528</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110537.3060585334</v>
+        <v>110532.976490747</v>
       </c>
       <c r="C6" t="n">
-        <v>110537.3060585334</v>
+        <v>110532.976490747</v>
       </c>
       <c r="D6" t="n">
-        <v>110537.3060585335</v>
+        <v>110532.9764907469</v>
       </c>
       <c r="E6" t="n">
-        <v>-308576.3248960813</v>
+        <v>-309313.4459484129</v>
       </c>
       <c r="F6" t="n">
-        <v>226429.790215346</v>
+        <v>225692.6691630142</v>
       </c>
       <c r="G6" t="n">
-        <v>226429.7902153459</v>
+        <v>225692.6691630144</v>
       </c>
       <c r="H6" t="n">
-        <v>226429.7902153458</v>
+        <v>225692.6691630141</v>
       </c>
       <c r="I6" t="n">
-        <v>208240.4690943531</v>
+        <v>207643.8228952618</v>
       </c>
       <c r="J6" t="n">
-        <v>239799.9696270076</v>
+        <v>239203.3234279164</v>
       </c>
       <c r="K6" t="n">
-        <v>239799.9696270077</v>
+        <v>239203.3234279164</v>
       </c>
       <c r="L6" t="n">
-        <v>239799.9696270076</v>
+        <v>239203.3234279162</v>
       </c>
       <c r="M6" t="n">
-        <v>144393.6326699607</v>
+        <v>143656.5116176294</v>
       </c>
       <c r="N6" t="n">
-        <v>226429.7902153457</v>
+        <v>225692.6691630143</v>
       </c>
       <c r="O6" t="n">
-        <v>226429.7902153457</v>
+        <v>225692.6691630144</v>
       </c>
       <c r="P6" t="n">
-        <v>226429.7902153459</v>
+        <v>225692.6691630141</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>499.4768010751915</v>
       </c>
       <c r="F3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="G3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="H3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="I3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="J3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="K3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="L3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="M3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="N3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="O3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
       <c r="P3" t="n">
-        <v>499.4768010751915</v>
+        <v>499.4768010751916</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="F4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="G4" t="n">
         <v>447.8727659010879</v>
       </c>
       <c r="H4" t="n">
-        <v>447.8727659010879</v>
+        <v>447.872765901088</v>
       </c>
       <c r="I4" t="n">
         <v>566.5527518091377</v>
@@ -26831,7 +26831,7 @@
         <v>447.8727659010879</v>
       </c>
       <c r="P4" t="n">
-        <v>447.8727659010873</v>
+        <v>447.8727659010872</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.643808914863719e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>118.6799859080498</v>
+        <v>118.6799859080497</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>329.1927799930382</v>
+        <v>329.1927799930381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>447.872765901088</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.643808914863719e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31992,19 +31992,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H14" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I14" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J14" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K14" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L14" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M14" t="n">
         <v>352.5779129519366</v>
@@ -32016,7 +32016,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P14" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q14" t="n">
         <v>216.8356800084767</v>
@@ -32074,7 +32074,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I15" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J15" t="n">
         <v>101.5021676600066</v>
@@ -32092,7 +32092,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O15" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P15" t="n">
         <v>205.1530279736952</v>
@@ -32110,7 +32110,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H16" t="n">
         <v>8.008005105762912</v>
@@ -32156,10 +32156,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J16" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K16" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L16" t="n">
         <v>133.9089115538309</v>
@@ -32189,7 +32189,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,19 +32229,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H17" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I17" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J17" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K17" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L17" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M17" t="n">
         <v>352.5779129519366</v>
@@ -32253,7 +32253,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P17" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q17" t="n">
         <v>216.8356800084767</v>
@@ -32311,7 +32311,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I18" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J18" t="n">
         <v>101.5021676600066</v>
@@ -32329,7 +32329,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O18" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P18" t="n">
         <v>205.1530279736952</v>
@@ -32347,7 +32347,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H19" t="n">
         <v>8.008005105762912</v>
@@ -32393,10 +32393,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J19" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K19" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L19" t="n">
         <v>133.9089115538309</v>
@@ -32426,7 +32426,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,19 +32466,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H20" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I20" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J20" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K20" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L20" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M20" t="n">
         <v>352.5779129519366</v>
@@ -32490,7 +32490,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P20" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q20" t="n">
         <v>216.8356800084767</v>
@@ -32548,7 +32548,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I21" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J21" t="n">
         <v>101.5021676600066</v>
@@ -32566,7 +32566,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O21" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P21" t="n">
         <v>205.1530279736952</v>
@@ -32584,7 +32584,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H22" t="n">
         <v>8.008005105762912</v>
@@ -32630,10 +32630,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J22" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K22" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L22" t="n">
         <v>133.9089115538309</v>
@@ -32663,7 +32663,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,19 +32703,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H23" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I23" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J23" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K23" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L23" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M23" t="n">
         <v>352.5779129519366</v>
@@ -32727,7 +32727,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P23" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q23" t="n">
         <v>216.8356800084767</v>
@@ -32785,7 +32785,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I24" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J24" t="n">
         <v>101.5021676600066</v>
@@ -32803,7 +32803,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O24" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P24" t="n">
         <v>205.1530279736952</v>
@@ -32821,7 +32821,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H25" t="n">
         <v>8.008005105762912</v>
@@ -32867,10 +32867,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J25" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K25" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L25" t="n">
         <v>133.9089115538309</v>
@@ -32900,7 +32900,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,19 +32940,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H26" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I26" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J26" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K26" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L26" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M26" t="n">
         <v>352.5779129519366</v>
@@ -32964,7 +32964,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P26" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q26" t="n">
         <v>216.8356800084767</v>
@@ -33022,7 +33022,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I27" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J27" t="n">
         <v>101.5021676600066</v>
@@ -33040,7 +33040,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O27" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P27" t="n">
         <v>205.1530279736952</v>
@@ -33058,7 +33058,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H28" t="n">
         <v>8.008005105762912</v>
@@ -33104,10 +33104,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J28" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K28" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L28" t="n">
         <v>133.9089115538309</v>
@@ -33137,7 +33137,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,19 +33177,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H29" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I29" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J29" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K29" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L29" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M29" t="n">
         <v>352.5779129519366</v>
@@ -33201,7 +33201,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P29" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q29" t="n">
         <v>216.8356800084767</v>
@@ -33259,7 +33259,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I30" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J30" t="n">
         <v>101.5021676600066</v>
@@ -33277,7 +33277,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O30" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P30" t="n">
         <v>205.1530279736952</v>
@@ -33295,7 +33295,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H31" t="n">
         <v>8.008005105762912</v>
@@ -33341,10 +33341,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J31" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K31" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L31" t="n">
         <v>133.9089115538309</v>
@@ -33374,7 +33374,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,19 +33414,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H32" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I32" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J32" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K32" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L32" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M32" t="n">
         <v>352.5779129519366</v>
@@ -33438,7 +33438,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P32" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q32" t="n">
         <v>216.8356800084767</v>
@@ -33496,7 +33496,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I33" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J33" t="n">
         <v>101.5021676600066</v>
@@ -33514,7 +33514,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O33" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P33" t="n">
         <v>205.1530279736952</v>
@@ -33532,7 +33532,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H34" t="n">
         <v>8.008005105762912</v>
@@ -33578,10 +33578,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J34" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K34" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L34" t="n">
         <v>133.9089115538309</v>
@@ -33611,7 +33611,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,19 +33651,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H35" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I35" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J35" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K35" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L35" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M35" t="n">
         <v>352.5779129519366</v>
@@ -33675,7 +33675,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P35" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q35" t="n">
         <v>216.8356800084767</v>
@@ -33733,7 +33733,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I36" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J36" t="n">
         <v>101.5021676600066</v>
@@ -33751,7 +33751,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O36" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P36" t="n">
         <v>205.1530279736952</v>
@@ -33769,7 +33769,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H37" t="n">
         <v>8.008005105762912</v>
@@ -33815,10 +33815,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J37" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K37" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L37" t="n">
         <v>133.9089115538309</v>
@@ -33848,7 +33848,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,19 +33888,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H38" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I38" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J38" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K38" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L38" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M38" t="n">
         <v>352.5779129519366</v>
@@ -33912,7 +33912,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P38" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q38" t="n">
         <v>216.8356800084767</v>
@@ -33970,7 +33970,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I39" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J39" t="n">
         <v>101.5021676600066</v>
@@ -33988,7 +33988,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O39" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P39" t="n">
         <v>205.1530279736952</v>
@@ -34006,7 +34006,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H40" t="n">
         <v>8.008005105762912</v>
@@ -34052,10 +34052,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J40" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K40" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L40" t="n">
         <v>133.9089115538309</v>
@@ -34085,7 +34085,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,19 +34125,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H41" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I41" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J41" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K41" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L41" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M41" t="n">
         <v>352.5779129519366</v>
@@ -34149,7 +34149,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P41" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q41" t="n">
         <v>216.8356800084767</v>
@@ -34207,7 +34207,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I42" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J42" t="n">
         <v>101.5021676600066</v>
@@ -34225,7 +34225,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O42" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P42" t="n">
         <v>205.1530279736952</v>
@@ -34243,7 +34243,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H43" t="n">
         <v>8.008005105762912</v>
@@ -34289,10 +34289,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J43" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K43" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L43" t="n">
         <v>133.9089115538309</v>
@@ -34322,7 +34322,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,19 +34362,19 @@
         <v>2.007946938995743</v>
       </c>
       <c r="H44" t="n">
-        <v>20.56388658899016</v>
+        <v>20.56388658899017</v>
       </c>
       <c r="I44" t="n">
-        <v>77.41137436563346</v>
+        <v>77.41137436563348</v>
       </c>
       <c r="J44" t="n">
-        <v>170.4219865135901</v>
+        <v>170.4219865135902</v>
       </c>
       <c r="K44" t="n">
         <v>255.41838044128</v>
       </c>
       <c r="L44" t="n">
-        <v>316.869086575571</v>
+        <v>316.8690865755711</v>
       </c>
       <c r="M44" t="n">
         <v>352.5779129519366</v>
@@ -34386,7 +34386,7 @@
         <v>338.3164698177193</v>
       </c>
       <c r="P44" t="n">
-        <v>288.7452797612618</v>
+        <v>288.7452797612619</v>
       </c>
       <c r="Q44" t="n">
         <v>216.8356800084767</v>
@@ -34444,7 +34444,7 @@
         <v>10.37592373554313</v>
       </c>
       <c r="I45" t="n">
-        <v>36.98955555132315</v>
+        <v>36.98955555132316</v>
       </c>
       <c r="J45" t="n">
         <v>101.5021676600066</v>
@@ -34462,7 +34462,7 @@
         <v>279.4195738392244</v>
       </c>
       <c r="O45" t="n">
-        <v>255.614321018169</v>
+        <v>255.6143210181691</v>
       </c>
       <c r="P45" t="n">
         <v>205.1530279736952</v>
@@ -34480,7 +34480,7 @@
         <v>4.330369624416046</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07068067939743279</v>
+        <v>0.07068067939743281</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9006958707913288</v>
+        <v>0.900695870791329</v>
       </c>
       <c r="H46" t="n">
         <v>8.008005105762912</v>
@@ -34526,10 +34526,10 @@
         <v>27.08638127797925</v>
       </c>
       <c r="J46" t="n">
-        <v>63.67919806494695</v>
+        <v>63.67919806494696</v>
       </c>
       <c r="K46" t="n">
-        <v>104.6444838973925</v>
+        <v>104.6444838973926</v>
       </c>
       <c r="L46" t="n">
         <v>133.9089115538309</v>
@@ -34559,7 +34559,7 @@
         <v>3.84842781156295</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04912886567952709</v>
+        <v>0.0491288656795271</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K11" t="n">
-        <v>393.1718881480708</v>
+        <v>112.3599772620426</v>
       </c>
       <c r="L11" t="n">
         <v>163.6209168450793</v>
@@ -35430,7 +35430,7 @@
         <v>138.4438325203366</v>
       </c>
       <c r="Q11" t="n">
-        <v>72.33698159008455</v>
+        <v>353.1488924761122</v>
       </c>
       <c r="R11" t="n">
         <v>88.51871232935819</v>
@@ -35491,7 +35491,7 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K12" t="n">
-        <v>342.6567702075519</v>
+        <v>88.83146529152141</v>
       </c>
       <c r="L12" t="n">
         <v>143.2094553810757</v>
@@ -35500,7 +35500,7 @@
         <v>179.8277345366674</v>
       </c>
       <c r="N12" t="n">
-        <v>194.0474609850577</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="O12" t="n">
         <v>162.9267621292801</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.60471059278766</v>
+        <v>33.60471059278788</v>
       </c>
       <c r="K13" t="n">
         <v>187.3061415842025</v>
@@ -35649,25 +35649,25 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K14" t="n">
-        <v>112.3599772620426</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L14" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M14" t="n">
-        <v>202.8528613542093</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N14" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O14" t="n">
-        <v>188.7526323936229</v>
+        <v>248.6543222282576</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5630703062718</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="Q14" t="n">
-        <v>403.5483670195358</v>
+        <v>72.33698159008458</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K15" t="n">
-        <v>342.6567702075519</v>
+        <v>342.6567702075511</v>
       </c>
       <c r="L15" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M15" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N15" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O15" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P15" t="n">
-        <v>118.0696631543805</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q15" t="n">
-        <v>373.8717819242028</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R15" t="n">
         <v>43.02584049908781</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K16" t="n">
         <v>187.3061415842025</v>
@@ -35813,7 +35813,7 @@
         <v>299.6944063758509</v>
       </c>
       <c r="M16" t="n">
-        <v>329.3614832714727</v>
+        <v>329.361483271472</v>
       </c>
       <c r="N16" t="n">
         <v>322.871067038872</v>
@@ -35886,13 +35886,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K17" t="n">
-        <v>150.4792150479773</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L17" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M17" t="n">
-        <v>202.8528613542093</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N17" t="n">
         <v>209.1645008545742</v>
@@ -35901,13 +35901,13 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P17" t="n">
-        <v>138.4438325203366</v>
+        <v>419.2557434063644</v>
       </c>
       <c r="Q17" t="n">
-        <v>403.5483670195358</v>
+        <v>72.33698159008458</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K18" t="n">
-        <v>447.8727659010879</v>
+        <v>385.6826107066391</v>
       </c>
       <c r="L18" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M18" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N18" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O18" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P18" t="n">
-        <v>209.5556825918817</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q18" t="n">
-        <v>373.8717819242028</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R18" t="n">
-        <v>43.02584049908781</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K19" t="n">
         <v>187.3061415842025</v>
@@ -36123,13 +36123,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K20" t="n">
-        <v>112.3599772620426</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L20" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M20" t="n">
-        <v>202.8528613542093</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N20" t="n">
         <v>209.1645008545742</v>
@@ -36138,13 +36138,13 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P20" t="n">
-        <v>138.4438325203366</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q20" t="n">
-        <v>353.1488924761125</v>
+        <v>353.1488924761127</v>
       </c>
       <c r="R20" t="n">
-        <v>88.51871232935819</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K21" t="n">
-        <v>342.6567702075517</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L21" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M21" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N21" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O21" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P21" t="n">
-        <v>118.0696631543805</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q21" t="n">
-        <v>373.8717819242028</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R21" t="n">
         <v>43.02584049908781</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K22" t="n">
         <v>187.3061415842025</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K23" t="n">
-        <v>112.3599772620426</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L23" t="n">
-        <v>214.3675255763768</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M23" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N23" t="n">
-        <v>566.5527518091377</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O23" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P23" t="n">
-        <v>138.4438325203366</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="Q23" t="n">
-        <v>403.5483670195358</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>79.93511118355295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K24" t="n">
-        <v>83.88643622501881</v>
+        <v>364.0984742392137</v>
       </c>
       <c r="L24" t="n">
-        <v>544.2180877143755</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M24" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N24" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O24" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P24" t="n">
         <v>566.5527518091377</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R24" t="n">
         <v>43.02584049908781</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K25" t="n">
         <v>187.3061415842025</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K26" t="n">
-        <v>112.3599772620426</v>
+        <v>531.8852954050382</v>
       </c>
       <c r="L26" t="n">
-        <v>214.3675255763768</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M26" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N26" t="n">
-        <v>566.5527518091377</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O26" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P26" t="n">
-        <v>138.4438325203366</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q26" t="n">
-        <v>403.5483670195358</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>496.4522059646415</v>
       </c>
       <c r="L27" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M27" t="n">
-        <v>566.5527518091377</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N27" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O27" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P27" t="n">
-        <v>418.2204121782514</v>
+        <v>434.1990200837097</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K28" t="n">
         <v>187.3061415842025</v>
@@ -36834,28 +36834,28 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K29" t="n">
-        <v>112.3599772620426</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L29" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M29" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N29" t="n">
-        <v>353.5086408719999</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O29" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P29" t="n">
-        <v>138.4438325203366</v>
+        <v>557.9691506633325</v>
       </c>
       <c r="Q29" t="n">
-        <v>403.5483670195358</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>496.4522059646415</v>
       </c>
       <c r="L30" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M30" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N30" t="n">
-        <v>510.1768179143864</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O30" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P30" t="n">
-        <v>118.0696631543805</v>
+        <v>434.1990200837088</v>
       </c>
       <c r="Q30" t="n">
-        <v>373.8717819242028</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R30" t="n">
         <v>43.02584049908781</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K31" t="n">
         <v>187.3061415842025</v>
@@ -37071,28 +37071,28 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K32" t="n">
-        <v>230.5272517543565</v>
+        <v>434.9877615456882</v>
       </c>
       <c r="L32" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M32" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N32" t="n">
-        <v>566.5527518091377</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O32" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P32" t="n">
-        <v>138.4438325203366</v>
+        <v>566.5527518091377</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.33698159008455</v>
+        <v>72.33698159008458</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K33" t="n">
         <v>496.4522059646415</v>
       </c>
       <c r="L33" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M33" t="n">
-        <v>566.5527518091377</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N33" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O33" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P33" t="n">
-        <v>148.5532903821404</v>
+        <v>434.1990200837088</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R33" t="n">
         <v>43.02584049908781</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K34" t="n">
         <v>187.3061415842025</v>
@@ -37308,13 +37308,13 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K35" t="n">
-        <v>112.3599772620426</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L35" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M35" t="n">
-        <v>202.8528613542093</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N35" t="n">
         <v>209.1645008545742</v>
@@ -37323,13 +37323,13 @@
         <v>188.7526323936229</v>
       </c>
       <c r="P35" t="n">
-        <v>138.4438325203366</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q35" t="n">
         <v>353.1488924761125</v>
       </c>
       <c r="R35" t="n">
-        <v>88.51871232935819</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K36" t="n">
-        <v>385.6826107066395</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L36" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M36" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N36" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O36" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P36" t="n">
-        <v>118.0696631543805</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q36" t="n">
-        <v>373.8717819242028</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K37" t="n">
         <v>187.3061415842025</v>
@@ -37545,28 +37545,28 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K38" t="n">
-        <v>134.0517546406054</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L38" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M38" t="n">
-        <v>202.8528613542093</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N38" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O38" t="n">
-        <v>447.8727659010879</v>
+        <v>188.7526323936229</v>
       </c>
       <c r="P38" t="n">
-        <v>138.4438325203366</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q38" t="n">
-        <v>72.33698159008455</v>
+        <v>353.1488924761125</v>
       </c>
       <c r="R38" t="n">
-        <v>88.51871232935819</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K39" t="n">
-        <v>98.65407305604869</v>
+        <v>83.88643622501881</v>
       </c>
       <c r="L39" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M39" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N39" t="n">
-        <v>194.0474609850577</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O39" t="n">
-        <v>447.8727659010879</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P39" t="n">
-        <v>447.8727659010879</v>
+        <v>376.8399971369132</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>43.02584049908781</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K40" t="n">
         <v>187.3061415842025</v>
@@ -37782,28 +37782,28 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K41" t="n">
-        <v>112.3599772620426</v>
+        <v>134.0517546406052</v>
       </c>
       <c r="L41" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M41" t="n">
-        <v>202.8528613542093</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N41" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O41" t="n">
-        <v>188.7526323936229</v>
+        <v>447.8727659010879</v>
       </c>
       <c r="P41" t="n">
-        <v>138.4438325203366</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q41" t="n">
-        <v>353.1488924761125</v>
+        <v>72.33698159008458</v>
       </c>
       <c r="R41" t="n">
-        <v>88.51871232935819</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K42" t="n">
-        <v>148.5070027950256</v>
+        <v>83.88643622501881</v>
       </c>
       <c r="L42" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M42" t="n">
-        <v>447.8727659010879</v>
+        <v>179.8277345366674</v>
       </c>
       <c r="N42" t="n">
-        <v>447.8727659010879</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O42" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P42" t="n">
-        <v>118.0696631543805</v>
+        <v>376.8399971369132</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.15121305627822</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R42" t="n">
         <v>43.02584049908781</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.60471059278767</v>
+        <v>33.60471059278789</v>
       </c>
       <c r="K43" t="n">
         <v>187.3061415842025</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.74214857124403</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K44" t="n">
-        <v>447.8727659010873</v>
+        <v>447.8727659010872</v>
       </c>
       <c r="L44" t="n">
-        <v>163.6209168450793</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M44" t="n">
-        <v>411.942703269625</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N44" t="n">
-        <v>209.1645008545742</v>
+        <v>242.9823354309124</v>
       </c>
       <c r="O44" t="n">
         <v>188.7526323936229</v>
       </c>
       <c r="P44" t="n">
-        <v>138.4438325203366</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q44" t="n">
-        <v>72.33698159008455</v>
+        <v>72.33698159008458</v>
       </c>
       <c r="R44" t="n">
-        <v>88.51871232935819</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K45" t="n">
-        <v>447.8727659010873</v>
+        <v>342.6567702075484</v>
       </c>
       <c r="L45" t="n">
-        <v>143.2094553810757</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M45" t="n">
         <v>179.8277345366674</v>
       </c>
       <c r="N45" t="n">
-        <v>447.8727659010873</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O45" t="n">
-        <v>162.9267621292801</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P45" t="n">
-        <v>118.0696631543805</v>
+        <v>118.0696631543806</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.5324964456732</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R45" t="n">
         <v>43.02584049908781</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.60471059278788</v>
+        <v>33.60471059278451</v>
       </c>
       <c r="K46" t="n">
         <v>187.3061415842025</v>
@@ -38195,7 +38195,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.87776097250416</v>
+        <v>78.87776097250641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
